--- a/result_analyze.xlsx
+++ b/result_analyze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tree\fluffy-broccoli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01C897D-3638-452B-A47A-5D68140B4638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCACBCE-B436-421A-9E3E-595082FC6DBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1170" windowWidth="18225" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6765" yWindow="45" windowWidth="18225" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>all3</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>Model2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -108,10 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -626,7 +633,7 @@
         <v>3615</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F17">
         <f>AVERAGE(F14:F16)</f>
         <v>3.3333333333333335</v>
@@ -636,8 +643,557 @@
         <v>3147.6666666666665</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>27818</v>
+      </c>
+      <c r="B23" s="2">
+        <v>14750</v>
+      </c>
+      <c r="C23" s="2">
+        <v>27817</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15689</v>
+      </c>
+      <c r="F23">
+        <f>ABS(A23-C23)</f>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>ABS(B23-D23)</f>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>29999</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14715</v>
+      </c>
+      <c r="C24" s="2">
+        <v>30029</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15710</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F32" si="4">ABS(A24-C24)</f>
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G32" si="5">ABS(B24-D24)</f>
+        <v>995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>32784</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15704</v>
+      </c>
+      <c r="C25" s="2">
+        <v>32787</v>
+      </c>
+      <c r="D25" s="2">
+        <v>16740</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>9848</v>
+      </c>
+      <c r="B26" s="2">
+        <v>14839</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9857</v>
+      </c>
+      <c r="D26" s="2">
+        <v>15684</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>20321</v>
+      </c>
+      <c r="B27" s="2">
+        <v>14764</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20310</v>
+      </c>
+      <c r="D27" s="2">
+        <v>15715</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>39154</v>
+      </c>
+      <c r="B28" s="2">
+        <v>14547</v>
+      </c>
+      <c r="C28" s="2">
+        <v>39154</v>
+      </c>
+      <c r="D28" s="2">
+        <v>15527</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>41881</v>
+      </c>
+      <c r="B29" s="2">
+        <v>15453</v>
+      </c>
+      <c r="C29" s="2">
+        <v>41883</v>
+      </c>
+      <c r="D29" s="2">
+        <v>16527</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>18368</v>
+      </c>
+      <c r="B30" s="2">
+        <v>14528</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18369</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15440</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B31" s="2">
+        <v>14779</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43868</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15754</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>36993</v>
+      </c>
+      <c r="B32" s="2">
+        <v>14695</v>
+      </c>
+      <c r="C32" s="2">
+        <v>36994</v>
+      </c>
+      <c r="D32" s="2">
+        <v>15545</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F33">
+        <f>AVERAGE(F23:F32)</f>
+        <v>5.9</v>
+      </c>
+      <c r="G33">
+        <f>AVERAGE(G23:G32)</f>
+        <v>955.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>29365</v>
+      </c>
+      <c r="B40" s="2">
+        <v>30868</v>
+      </c>
+      <c r="C40" s="2">
+        <v>29771</v>
+      </c>
+      <c r="D40" s="2">
+        <v>34379</v>
+      </c>
+      <c r="F40">
+        <f>ABS(A40-C40)</f>
+        <v>406</v>
+      </c>
+      <c r="G40">
+        <f>ABS(B40-D40)</f>
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>40900</v>
+      </c>
+      <c r="B41" s="2">
+        <v>30532</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40856</v>
+      </c>
+      <c r="D41" s="2">
+        <v>34632</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F49" si="6">ABS(A41-C41)</f>
+        <v>44</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G49" si="7">ABS(B41-D41)</f>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>36238</v>
+      </c>
+      <c r="B42" s="2">
+        <v>29577</v>
+      </c>
+      <c r="C42" s="2">
+        <v>36306</v>
+      </c>
+      <c r="D42" s="2">
+        <v>32389</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>45594</v>
+      </c>
+      <c r="B43" s="2">
+        <v>35228</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45594</v>
+      </c>
+      <c r="D43" s="2">
+        <v>35685</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>12999</v>
+      </c>
+      <c r="B44" s="2">
+        <v>35902</v>
+      </c>
+      <c r="C44" s="2">
+        <v>11043</v>
+      </c>
+      <c r="D44" s="2">
+        <v>33470</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>1956</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>20574</v>
+      </c>
+      <c r="B45" s="2">
+        <v>28370</v>
+      </c>
+      <c r="C45" s="2">
+        <v>17419</v>
+      </c>
+      <c r="D45" s="2">
+        <v>31179</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>3155</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>30332</v>
+      </c>
+      <c r="B46" s="2">
+        <v>30815</v>
+      </c>
+      <c r="C46" s="2">
+        <v>30327</v>
+      </c>
+      <c r="D46" s="2">
+        <v>34967</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>34003</v>
+      </c>
+      <c r="B47" s="2">
+        <v>31161</v>
+      </c>
+      <c r="C47" s="2">
+        <v>34045</v>
+      </c>
+      <c r="D47" s="2">
+        <v>34813</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>16846</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33241</v>
+      </c>
+      <c r="C48" s="2">
+        <v>16468</v>
+      </c>
+      <c r="D48" s="2">
+        <v>31148</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>378</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>39153</v>
+      </c>
+      <c r="B49" s="2">
+        <v>38085</v>
+      </c>
+      <c r="C49" s="2">
+        <v>39154</v>
+      </c>
+      <c r="D49" s="2">
+        <v>33147</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F50">
+        <f>AVERAGE(F40:F49)</f>
+        <v>605.5</v>
+      </c>
+      <c r="G50">
+        <f>AVERAGE(G40:G49)</f>
+        <v>3095.6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
